--- a/hw4/month_omege_rank.xlsx
+++ b/hw4/month_omege_rank.xlsx
@@ -383,11 +383,11 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>GDXS</t>
+          <t>JDST</t>
         </is>
       </c>
     </row>
@@ -396,11 +396,11 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>EDC</t>
+          <t>GDXS</t>
         </is>
       </c>
     </row>
@@ -409,11 +409,11 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>HGI</t>
+          <t>EDC</t>
         </is>
       </c>
     </row>
@@ -422,11 +422,11 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>JDST</t>
+          <t>CRAK</t>
         </is>
       </c>
     </row>
@@ -435,11 +435,11 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>CRAK</t>
+          <t>KOL</t>
         </is>
       </c>
     </row>
@@ -448,11 +448,11 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>KOL</t>
+          <t>SLX</t>
         </is>
       </c>
     </row>
@@ -461,11 +461,11 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>SLX</t>
+          <t>SOCL</t>
         </is>
       </c>
     </row>
@@ -474,11 +474,11 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>SOCL</t>
+          <t>COPX</t>
         </is>
       </c>
     </row>
@@ -487,11 +487,11 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>COPX</t>
+          <t>PICK</t>
         </is>
       </c>
     </row>
@@ -500,11 +500,11 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>PICK</t>
+          <t>LIT</t>
         </is>
       </c>
     </row>
@@ -513,11 +513,11 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>LIT</t>
+          <t>SIL</t>
         </is>
       </c>
     </row>
@@ -526,11 +526,11 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>SIL</t>
+          <t>SLVP</t>
         </is>
       </c>
     </row>
@@ -539,11 +539,11 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>SLVP</t>
+          <t>AADR</t>
         </is>
       </c>
     </row>
@@ -552,11 +552,11 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>AADR</t>
+          <t>FPXI</t>
         </is>
       </c>
     </row>
@@ -565,11 +565,11 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>FPXI</t>
+          <t>FNDE</t>
         </is>
       </c>
     </row>
@@ -578,11 +578,11 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>FNDE</t>
+          <t>FLN</t>
         </is>
       </c>
     </row>
@@ -591,11 +591,11 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>FLN</t>
+          <t>EMGF</t>
         </is>
       </c>
     </row>
@@ -604,11 +604,11 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>EMGF</t>
+          <t>EEM</t>
         </is>
       </c>
     </row>
@@ -617,11 +617,11 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EEM</t>
+          <t>IEMG</t>
         </is>
       </c>
     </row>
@@ -630,11 +630,11 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>IEMG</t>
+          <t>FONE</t>
         </is>
       </c>
     </row>
@@ -643,11 +643,11 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>FONE</t>
+          <t>FIEG</t>
         </is>
       </c>
     </row>
@@ -656,11 +656,11 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>FIEG</t>
+          <t>TLTE</t>
         </is>
       </c>
     </row>
@@ -669,11 +669,11 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>TLTE</t>
+          <t>GDXJ</t>
         </is>
       </c>
     </row>
@@ -682,11 +682,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>GDXJ</t>
+          <t>VIDI</t>
         </is>
       </c>
     </row>
@@ -695,11 +695,11 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>VIDI</t>
+          <t>FWDI</t>
         </is>
       </c>
     </row>
@@ -708,11 +708,11 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>FWDI</t>
+          <t>HEEM</t>
         </is>
       </c>
     </row>
@@ -721,11 +721,11 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>HEEM</t>
+          <t>FM</t>
         </is>
       </c>
     </row>
@@ -734,11 +734,11 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>FM</t>
+          <t>QEMM</t>
         </is>
       </c>
     </row>
@@ -747,11 +747,11 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>QEMM</t>
+          <t>IFV</t>
         </is>
       </c>
     </row>
@@ -760,11 +760,11 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>IFV</t>
+          <t>EMCG</t>
         </is>
       </c>
     </row>
@@ -773,11 +773,11 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>EMCG</t>
+          <t>FPA</t>
         </is>
       </c>
     </row>
@@ -786,11 +786,11 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>FPA</t>
+          <t>EEMS</t>
         </is>
       </c>
     </row>
@@ -799,11 +799,11 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>EEMS</t>
+          <t>TLEH</t>
         </is>
       </c>
     </row>
@@ -812,11 +812,11 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>TLEH</t>
+          <t>HAWX</t>
         </is>
       </c>
     </row>
@@ -825,11 +825,11 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>HAWX</t>
+          <t>DBAW</t>
         </is>
       </c>
     </row>
@@ -838,11 +838,11 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>DBAW</t>
+          <t>ECON</t>
         </is>
       </c>
     </row>
@@ -851,11 +851,11 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>ECON</t>
+          <t>IQDF</t>
         </is>
       </c>
     </row>
@@ -864,11 +864,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>IQDF</t>
+          <t>EMFM</t>
         </is>
       </c>
     </row>
@@ -877,11 +877,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>EMFM</t>
+          <t>HILO</t>
         </is>
       </c>
     </row>
@@ -890,11 +890,11 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>HILO</t>
+          <t>SOIL</t>
         </is>
       </c>
     </row>
@@ -903,11 +903,11 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>SOIL</t>
+          <t>PBD</t>
         </is>
       </c>
     </row>
@@ -916,11 +916,11 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>PBD</t>
+          <t>FAN</t>
         </is>
       </c>
     </row>
@@ -929,11 +929,11 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>FAN</t>
+          <t>ICLN</t>
         </is>
       </c>
     </row>
@@ -942,11 +942,11 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>ICLN</t>
+          <t>HGI</t>
         </is>
       </c>
     </row>
